--- a/Code/Results/Cases/Case_3_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_190/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.986775275469389</v>
+        <v>1.014401056327781</v>
       </c>
       <c r="D2">
-        <v>1.007367745852898</v>
+        <v>1.021002681843134</v>
       </c>
       <c r="E2">
-        <v>0.9950987428634162</v>
+        <v>1.016198192904378</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037846920622425</v>
+        <v>1.026041344343634</v>
       </c>
       <c r="J2">
-        <v>1.009358861212182</v>
+        <v>1.019632505049139</v>
       </c>
       <c r="K2">
-        <v>1.018725381778284</v>
+        <v>1.023841298270967</v>
       </c>
       <c r="L2">
-        <v>1.006626784962582</v>
+        <v>1.019051080092922</v>
       </c>
       <c r="N2">
-        <v>1.007206535763032</v>
+        <v>1.010676914312065</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9904869684087171</v>
+        <v>1.015190588702211</v>
       </c>
       <c r="D3">
-        <v>1.009933657180504</v>
+        <v>1.021562880961042</v>
       </c>
       <c r="E3">
-        <v>0.9979864896014157</v>
+        <v>1.016863031983433</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038459062904268</v>
+        <v>1.02611002221871</v>
       </c>
       <c r="J3">
-        <v>1.011240371098629</v>
+        <v>1.02005744383221</v>
       </c>
       <c r="K3">
-        <v>1.020440993418685</v>
+        <v>1.02420853212053</v>
       </c>
       <c r="L3">
-        <v>1.008645198664265</v>
+        <v>1.019521635748569</v>
       </c>
       <c r="N3">
-        <v>1.007834599488314</v>
+        <v>1.010817989540165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.992845316049137</v>
+        <v>1.015702076021302</v>
       </c>
       <c r="D4">
-        <v>1.011565366764589</v>
+        <v>1.021925588425563</v>
       </c>
       <c r="E4">
-        <v>0.999827475353263</v>
+        <v>1.017294161022259</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03883707952265</v>
+        <v>1.026153146442554</v>
       </c>
       <c r="J4">
-        <v>1.012433827123472</v>
+        <v>1.020332368821031</v>
       </c>
       <c r="K4">
-        <v>1.021526183538055</v>
+        <v>1.02444567480292</v>
       </c>
       <c r="L4">
-        <v>1.009927983041529</v>
+        <v>1.019826369861695</v>
       </c>
       <c r="N4">
-        <v>1.008232885405795</v>
+        <v>1.010909235335247</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9938266871250711</v>
+        <v>1.015917248766061</v>
       </c>
       <c r="D5">
-        <v>1.012244642093307</v>
+        <v>1.022078121572416</v>
       </c>
       <c r="E5">
-        <v>1.000595000873165</v>
+        <v>1.017475629210885</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038991718973675</v>
+        <v>1.026170960337363</v>
       </c>
       <c r="J5">
-        <v>1.01292994129021</v>
+        <v>1.02044793660265</v>
       </c>
       <c r="K5">
-        <v>1.021976545834767</v>
+        <v>1.024545252674729</v>
       </c>
       <c r="L5">
-        <v>1.010461829993079</v>
+        <v>1.019954539184813</v>
       </c>
       <c r="N5">
-        <v>1.008398425639157</v>
+        <v>1.010947585166571</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9939908812454851</v>
+        <v>1.015953385576144</v>
       </c>
       <c r="D6">
-        <v>1.01235830712849</v>
+        <v>1.022103735486561</v>
       </c>
       <c r="E6">
-        <v>1.00072350006628</v>
+        <v>1.017506111451608</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039017434112716</v>
+        <v>1.026173932844794</v>
       </c>
       <c r="J6">
-        <v>1.013012915540879</v>
+        <v>1.020467340274742</v>
       </c>
       <c r="K6">
-        <v>1.022051823772622</v>
+        <v>1.024561965338757</v>
       </c>
       <c r="L6">
-        <v>1.010551150292005</v>
+        <v>1.019976062800238</v>
       </c>
       <c r="N6">
-        <v>1.008426110426451</v>
+        <v>1.010954023677141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9928584683844404</v>
+        <v>1.015704950608619</v>
       </c>
       <c r="D7">
-        <v>1.011574469383661</v>
+        <v>1.021927626383374</v>
       </c>
       <c r="E7">
-        <v>0.9998377560809978</v>
+        <v>1.017296584941081</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03883916257026</v>
+        <v>1.02615338571341</v>
       </c>
       <c r="J7">
-        <v>1.012440478115157</v>
+        <v>1.020333913087115</v>
       </c>
       <c r="K7">
-        <v>1.021532224143682</v>
+        <v>1.024447005828564</v>
       </c>
       <c r="L7">
-        <v>1.009935137514682</v>
+        <v>1.019828082236123</v>
       </c>
       <c r="N7">
-        <v>1.008235104768801</v>
+        <v>1.010909747807091</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9880388255552425</v>
+        <v>1.014667755672212</v>
       </c>
       <c r="D8">
-        <v>1.008240924940754</v>
+        <v>1.021191956748328</v>
       </c>
       <c r="E8">
-        <v>0.9960804901150501</v>
+        <v>1.016422683861095</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038057571355334</v>
+        <v>1.026064826186389</v>
       </c>
       <c r="J8">
-        <v>1.009999778590417</v>
+        <v>1.01977612230275</v>
       </c>
       <c r="K8">
-        <v>1.019310412869265</v>
+        <v>1.023965505619294</v>
       </c>
       <c r="L8">
-        <v>1.007313816721559</v>
+        <v>1.019210053264768</v>
       </c>
       <c r="N8">
-        <v>1.007420499337265</v>
+        <v>1.010724599191293</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9791995762930259</v>
+        <v>1.012844817457269</v>
       </c>
       <c r="D9">
-        <v>1.002140512119632</v>
+        <v>1.019897396021618</v>
       </c>
       <c r="E9">
-        <v>0.9892401496017382</v>
+        <v>1.014889997361929</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036539473812503</v>
+        <v>1.025898734105853</v>
       </c>
       <c r="J9">
-        <v>1.00550885527644</v>
+        <v>1.018792987791979</v>
       </c>
       <c r="K9">
-        <v>1.015198956208802</v>
+        <v>1.023113413127184</v>
       </c>
       <c r="L9">
-        <v>1.002510243963542</v>
+        <v>1.018123012253631</v>
       </c>
       <c r="N9">
-        <v>1.005920888898458</v>
+        <v>1.010398064228391</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9730528147635432</v>
+        <v>1.011632817673133</v>
       </c>
       <c r="D10">
-        <v>0.9979108934633251</v>
+        <v>1.019035675026208</v>
       </c>
       <c r="E10">
-        <v>0.9845201081687333</v>
+        <v>1.013873192135316</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035429223842253</v>
+        <v>1.02578129980991</v>
       </c>
       <c r="J10">
-        <v>1.002377928948451</v>
+        <v>1.01813748913099</v>
       </c>
       <c r="K10">
-        <v>1.012317970098571</v>
+        <v>1.022543000637225</v>
       </c>
       <c r="L10">
-        <v>0.9991745970984373</v>
+        <v>1.017399755815962</v>
       </c>
       <c r="N10">
-        <v>1.004875013088818</v>
+        <v>1.010180215573127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9703259673697328</v>
+        <v>1.011108812709223</v>
       </c>
       <c r="D11">
-        <v>0.9960383397785585</v>
+        <v>1.018662878829981</v>
       </c>
       <c r="E11">
-        <v>0.9824354861324965</v>
+        <v>1.013434111981779</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034924346249892</v>
+        <v>1.025728867975672</v>
       </c>
       <c r="J11">
-        <v>1.000987533943029</v>
+        <v>1.017853650566721</v>
       </c>
       <c r="K11">
-        <v>1.011035355935672</v>
+        <v>1.022295466792827</v>
       </c>
       <c r="L11">
-        <v>0.9976964233396945</v>
+        <v>1.017086937715159</v>
       </c>
       <c r="N11">
-        <v>1.004410482875874</v>
+        <v>1.010085853238142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9693028363481642</v>
+        <v>1.01091429585641</v>
       </c>
       <c r="D12">
-        <v>0.9953363892215088</v>
+        <v>1.018524458081827</v>
       </c>
       <c r="E12">
-        <v>0.9816547723674514</v>
+        <v>1.013271200887046</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034733110030307</v>
+        <v>1.025709155501414</v>
       </c>
       <c r="J12">
-        <v>1.000465670874574</v>
+        <v>1.01774822120502</v>
       </c>
       <c r="K12">
-        <v>1.010553485402005</v>
+        <v>1.022203441855488</v>
       </c>
       <c r="L12">
-        <v>0.9971420846386213</v>
+        <v>1.016970798273665</v>
       </c>
       <c r="N12">
-        <v>1.004236119454206</v>
+        <v>1.010050798492327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9695227732247896</v>
+        <v>1.010956014834051</v>
       </c>
       <c r="D13">
-        <v>0.9954872534059069</v>
+        <v>1.018554147399618</v>
       </c>
       <c r="E13">
-        <v>0.981822531725712</v>
+        <v>1.013306137563762</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03477429966151</v>
+        <v>1.025713394605244</v>
       </c>
       <c r="J13">
-        <v>1.000577860315872</v>
+        <v>1.017770836096673</v>
       </c>
       <c r="K13">
-        <v>1.010657097798886</v>
+        <v>1.022223185106024</v>
       </c>
       <c r="L13">
-        <v>0.9972612343745689</v>
+        <v>1.016995708058732</v>
       </c>
       <c r="N13">
-        <v>1.004273604264969</v>
+        <v>1.010058318044192</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9702416070283298</v>
+        <v>1.011092731387381</v>
       </c>
       <c r="D14">
-        <v>0.9959804482479463</v>
+        <v>1.018651435847692</v>
       </c>
       <c r="E14">
-        <v>0.9823710840465845</v>
+        <v>1.013420641958445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034908614587111</v>
+        <v>1.025727243366065</v>
       </c>
       <c r="J14">
-        <v>1.000944508092128</v>
+        <v>1.017844935715858</v>
       </c>
       <c r="K14">
-        <v>1.010995636590041</v>
+        <v>1.02228786160295</v>
       </c>
       <c r="L14">
-        <v>0.997650710409642</v>
+        <v>1.017077336459192</v>
       </c>
       <c r="N14">
-        <v>1.00439610737755</v>
+        <v>1.010082955688246</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9706831308866717</v>
+        <v>1.011176983180523</v>
       </c>
       <c r="D15">
-        <v>0.9962834667495163</v>
+        <v>1.018711385471383</v>
       </c>
       <c r="E15">
-        <v>0.9827082101611687</v>
+        <v>1.013491216182491</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034990877499864</v>
+        <v>1.025735744667241</v>
       </c>
       <c r="J15">
-        <v>1.001169689114611</v>
+        <v>1.017890591100967</v>
       </c>
       <c r="K15">
-        <v>1.011203493929781</v>
+        <v>1.022327700391846</v>
       </c>
       <c r="L15">
-        <v>0.9978899737861517</v>
+        <v>1.017127637761912</v>
       </c>
       <c r="N15">
-        <v>1.004471342929037</v>
+        <v>1.010098135189321</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9732323735470532</v>
+        <v>1.011667611150914</v>
       </c>
       <c r="D16">
-        <v>0.9980342837357257</v>
+        <v>1.019060423510655</v>
       </c>
       <c r="E16">
-        <v>0.98465757585259</v>
+        <v>1.013902357964936</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035462216031509</v>
+        <v>1.025784746268637</v>
       </c>
       <c r="J16">
-        <v>1.002469457526655</v>
+        <v>1.01815632661284</v>
       </c>
       <c r="K16">
-        <v>1.012402338325698</v>
+        <v>1.022559417363504</v>
       </c>
       <c r="L16">
-        <v>0.9992719694417029</v>
+        <v>1.017420524169866</v>
       </c>
       <c r="N16">
-        <v>1.004905591356422</v>
+        <v>1.010186477449894</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9748136619848807</v>
+        <v>1.011975584347763</v>
       </c>
       <c r="D17">
-        <v>0.9991213654423423</v>
+        <v>1.019279456922195</v>
       </c>
       <c r="E17">
-        <v>0.9858692549671657</v>
+        <v>1.014160579930456</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035751360704289</v>
+        <v>1.025815060640002</v>
       </c>
       <c r="J17">
-        <v>1.003275346102945</v>
+        <v>1.018323015591788</v>
       </c>
       <c r="K17">
-        <v>1.013144817863559</v>
+        <v>1.022704623393248</v>
       </c>
       <c r="L17">
-        <v>1.000129668326363</v>
+        <v>1.017604340663426</v>
       </c>
       <c r="N17">
-        <v>1.005174817998384</v>
+        <v>1.010241883886288</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9757297362341815</v>
+        <v>1.012155296862359</v>
       </c>
       <c r="D18">
-        <v>0.9997514920424243</v>
+        <v>1.019407247558401</v>
       </c>
       <c r="E18">
-        <v>0.9865720873529982</v>
+        <v>1.014311312389896</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035917690920848</v>
+        <v>1.025832589810573</v>
       </c>
       <c r="J18">
-        <v>1.003742074769115</v>
+        <v>1.018420242037937</v>
       </c>
       <c r="K18">
-        <v>1.013574516436537</v>
+        <v>1.022789267268815</v>
       </c>
       <c r="L18">
-        <v>1.000626700733133</v>
+        <v>1.017711592028518</v>
       </c>
       <c r="N18">
-        <v>1.005330732960129</v>
+        <v>1.01027419836083</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9760410446659485</v>
+        <v>1.012216587181795</v>
       </c>
       <c r="D19">
-        <v>0.9999656856391197</v>
+        <v>1.019450826253408</v>
       </c>
       <c r="E19">
-        <v>0.9868110778995036</v>
+        <v>1.014362727868828</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035974013462189</v>
+        <v>1.025838540883989</v>
       </c>
       <c r="J19">
-        <v>1.00390065775414</v>
+        <v>1.018453393629946</v>
       </c>
       <c r="K19">
-        <v>1.013720464809981</v>
+        <v>1.022818119718585</v>
       </c>
       <c r="L19">
-        <v>1.000795630731174</v>
+        <v>1.017748167745866</v>
       </c>
       <c r="N19">
-        <v>1.005383707797748</v>
+        <v>1.01028521620997</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9746446558703548</v>
+        <v>1.011942533764466</v>
       </c>
       <c r="D20">
-        <v>0.9990051420002269</v>
+        <v>1.019255953369334</v>
       </c>
       <c r="E20">
-        <v>0.9857396605219959</v>
+        <v>1.014132863148683</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035720579033852</v>
+        <v>1.025811823983013</v>
       </c>
       <c r="J20">
-        <v>1.003189227976082</v>
+        <v>1.018305131474586</v>
       </c>
       <c r="K20">
-        <v>1.0130655073728</v>
+        <v>1.022689049563897</v>
       </c>
       <c r="L20">
-        <v>1.000037982796923</v>
+        <v>1.017584615332903</v>
       </c>
       <c r="N20">
-        <v>1.00514604886938</v>
+        <v>1.010235939623525</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9700302153530327</v>
+        <v>1.011052468389165</v>
       </c>
       <c r="D21">
-        <v>0.9958353932258879</v>
+        <v>1.018622785362611</v>
       </c>
       <c r="E21">
-        <v>0.9822097276832236</v>
+        <v>1.013386918204838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03486916502635</v>
+        <v>1.025723171786534</v>
       </c>
       <c r="J21">
-        <v>1.000836690404141</v>
+        <v>1.017823115188152</v>
       </c>
       <c r="K21">
-        <v>1.010896097252681</v>
+        <v>1.022268818178707</v>
       </c>
       <c r="L21">
-        <v>0.9975361668052953</v>
+        <v>1.017053297395616</v>
       </c>
       <c r="N21">
-        <v>1.00436008393769</v>
+        <v>1.010075700632866</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9670693367040275</v>
+        <v>1.010493555301183</v>
       </c>
       <c r="D22">
-        <v>0.9938052928787757</v>
+        <v>1.018224991455997</v>
       </c>
       <c r="E22">
-        <v>0.9799531954422723</v>
+        <v>1.012918971790797</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034312386172201</v>
+        <v>1.025666062032074</v>
       </c>
       <c r="J22">
-        <v>0.9993261588735769</v>
+        <v>1.017520058434592</v>
       </c>
       <c r="K22">
-        <v>1.009500475157366</v>
+        <v>1.022004140805096</v>
       </c>
       <c r="L22">
-        <v>0.9959325258089622</v>
+        <v>1.016719556440984</v>
       </c>
       <c r="N22">
-        <v>1.003855373840589</v>
+        <v>1.009974926964303</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9686447621552272</v>
+        <v>1.010789778119791</v>
       </c>
       <c r="D23">
-        <v>0.9948850878030132</v>
+        <v>1.018435840029972</v>
       </c>
       <c r="E23">
-        <v>0.9811530354549254</v>
+        <v>1.013166937994047</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034609606219912</v>
+        <v>1.025696466669385</v>
       </c>
       <c r="J23">
-        <v>1.000129965322399</v>
+        <v>1.017680713510636</v>
       </c>
       <c r="K23">
-        <v>1.010243379093211</v>
+        <v>1.022144494505991</v>
       </c>
       <c r="L23">
-        <v>0.9967856207169773</v>
+        <v>1.016896448017135</v>
       </c>
       <c r="N23">
-        <v>1.004123952070831</v>
+        <v>1.010028351201298</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9747210417854563</v>
+        <v>1.011957467662858</v>
       </c>
       <c r="D24">
-        <v>0.9990576705611064</v>
+        <v>1.019266573514098</v>
       </c>
       <c r="E24">
-        <v>0.985798230767714</v>
+        <v>1.014145386811302</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035734495118947</v>
+        <v>1.025813286960862</v>
       </c>
       <c r="J24">
-        <v>1.003228151335108</v>
+        <v>1.018313212538801</v>
       </c>
       <c r="K24">
-        <v>1.01310135479396</v>
+        <v>1.022696086868942</v>
       </c>
       <c r="L24">
-        <v>1.000079421566986</v>
+        <v>1.017593528254874</v>
       </c>
       <c r="N24">
-        <v>1.005159051858169</v>
+        <v>1.010238625589835</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9815278805916402</v>
+        <v>1.013315518509072</v>
       </c>
       <c r="D25">
-        <v>1.003745482523113</v>
+        <v>1.020231847239014</v>
       </c>
       <c r="E25">
-        <v>0.9910357784340579</v>
+        <v>1.015285363463984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036948975322075</v>
+        <v>1.025942858082052</v>
       </c>
       <c r="J25">
-        <v>1.006693307913317</v>
+        <v>1.019047171027472</v>
       </c>
       <c r="K25">
-        <v>1.01628593162395</v>
+        <v>1.023334120254233</v>
       </c>
       <c r="L25">
-        <v>1.003774864807357</v>
+        <v>1.018403791573574</v>
       </c>
       <c r="N25">
-        <v>1.006316476782663</v>
+        <v>1.010482511446143</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_190/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014401056327781</v>
+        <v>0.9867752754693894</v>
       </c>
       <c r="D2">
-        <v>1.021002681843134</v>
+        <v>1.007367745852898</v>
       </c>
       <c r="E2">
-        <v>1.016198192904378</v>
+        <v>0.9950987428634164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026041344343634</v>
+        <v>1.037846920622425</v>
       </c>
       <c r="J2">
-        <v>1.019632505049139</v>
+        <v>1.009358861212182</v>
       </c>
       <c r="K2">
-        <v>1.023841298270967</v>
+        <v>1.018725381778284</v>
       </c>
       <c r="L2">
-        <v>1.019051080092922</v>
+        <v>1.006626784962582</v>
       </c>
       <c r="N2">
-        <v>1.010676914312065</v>
+        <v>1.007206535763032</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015190588702211</v>
+        <v>0.9904869684087172</v>
       </c>
       <c r="D3">
-        <v>1.021562880961042</v>
+        <v>1.009933657180504</v>
       </c>
       <c r="E3">
-        <v>1.016863031983433</v>
+        <v>0.9979864896014159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02611002221871</v>
+        <v>1.038459062904268</v>
       </c>
       <c r="J3">
-        <v>1.02005744383221</v>
+        <v>1.01124037109863</v>
       </c>
       <c r="K3">
-        <v>1.02420853212053</v>
+        <v>1.020440993418685</v>
       </c>
       <c r="L3">
-        <v>1.019521635748569</v>
+        <v>1.008645198664265</v>
       </c>
       <c r="N3">
-        <v>1.010817989540165</v>
+        <v>1.007834599488314</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015702076021302</v>
+        <v>0.9928453160491374</v>
       </c>
       <c r="D4">
-        <v>1.021925588425563</v>
+        <v>1.011565366764589</v>
       </c>
       <c r="E4">
-        <v>1.017294161022259</v>
+        <v>0.9998274753532634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026153146442554</v>
+        <v>1.03883707952265</v>
       </c>
       <c r="J4">
-        <v>1.020332368821031</v>
+        <v>1.012433827123472</v>
       </c>
       <c r="K4">
-        <v>1.02444567480292</v>
+        <v>1.021526183538055</v>
       </c>
       <c r="L4">
-        <v>1.019826369861695</v>
+        <v>1.009927983041529</v>
       </c>
       <c r="N4">
-        <v>1.010909235335247</v>
+        <v>1.008232885405795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015917248766061</v>
+        <v>0.9938266871250714</v>
       </c>
       <c r="D5">
-        <v>1.022078121572416</v>
+        <v>1.012244642093307</v>
       </c>
       <c r="E5">
-        <v>1.017475629210885</v>
+        <v>1.000595000873166</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026170960337363</v>
+        <v>1.038991718973675</v>
       </c>
       <c r="J5">
-        <v>1.02044793660265</v>
+        <v>1.01292994129021</v>
       </c>
       <c r="K5">
-        <v>1.024545252674729</v>
+        <v>1.021976545834768</v>
       </c>
       <c r="L5">
-        <v>1.019954539184813</v>
+        <v>1.010461829993079</v>
       </c>
       <c r="N5">
-        <v>1.010947585166571</v>
+        <v>1.008398425639157</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015953385576144</v>
+        <v>0.9939908812454853</v>
       </c>
       <c r="D6">
-        <v>1.022103735486561</v>
+        <v>1.01235830712849</v>
       </c>
       <c r="E6">
-        <v>1.017506111451608</v>
+        <v>1.000723500066281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026173932844794</v>
+        <v>1.039017434112717</v>
       </c>
       <c r="J6">
-        <v>1.020467340274742</v>
+        <v>1.013012915540879</v>
       </c>
       <c r="K6">
-        <v>1.024561965338757</v>
+        <v>1.022051823772622</v>
       </c>
       <c r="L6">
-        <v>1.019976062800238</v>
+        <v>1.010551150292006</v>
       </c>
       <c r="N6">
-        <v>1.010954023677141</v>
+        <v>1.008426110426452</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015704950608619</v>
+        <v>0.9928584683844404</v>
       </c>
       <c r="D7">
-        <v>1.021927626383374</v>
+        <v>1.011574469383661</v>
       </c>
       <c r="E7">
-        <v>1.017296584941081</v>
+        <v>0.9998377560809973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02615338571341</v>
+        <v>1.03883916257026</v>
       </c>
       <c r="J7">
-        <v>1.020333913087115</v>
+        <v>1.012440478115157</v>
       </c>
       <c r="K7">
-        <v>1.024447005828564</v>
+        <v>1.021532224143682</v>
       </c>
       <c r="L7">
-        <v>1.019828082236123</v>
+        <v>1.009935137514682</v>
       </c>
       <c r="N7">
-        <v>1.010909747807091</v>
+        <v>1.008235104768801</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014667755672212</v>
+        <v>0.9880388255552425</v>
       </c>
       <c r="D8">
-        <v>1.021191956748328</v>
+        <v>1.008240924940754</v>
       </c>
       <c r="E8">
-        <v>1.016422683861095</v>
+        <v>0.9960804901150498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026064826186389</v>
+        <v>1.038057571355334</v>
       </c>
       <c r="J8">
-        <v>1.01977612230275</v>
+        <v>1.009999778590417</v>
       </c>
       <c r="K8">
-        <v>1.023965505619294</v>
+        <v>1.019310412869265</v>
       </c>
       <c r="L8">
-        <v>1.019210053264768</v>
+        <v>1.007313816721558</v>
       </c>
       <c r="N8">
-        <v>1.010724599191293</v>
+        <v>1.007420499337265</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012844817457269</v>
+        <v>0.9791995762930248</v>
       </c>
       <c r="D9">
-        <v>1.019897396021618</v>
+        <v>1.002140512119631</v>
       </c>
       <c r="E9">
-        <v>1.014889997361929</v>
+        <v>0.9892401496017369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025898734105853</v>
+        <v>1.036539473812502</v>
       </c>
       <c r="J9">
-        <v>1.018792987791979</v>
+        <v>1.005508855276439</v>
       </c>
       <c r="K9">
-        <v>1.023113413127184</v>
+        <v>1.015198956208801</v>
       </c>
       <c r="L9">
-        <v>1.018123012253631</v>
+        <v>1.002510243963541</v>
       </c>
       <c r="N9">
-        <v>1.010398064228391</v>
+        <v>1.005920888898457</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011632817673133</v>
+        <v>0.9730528147635435</v>
       </c>
       <c r="D10">
-        <v>1.019035675026208</v>
+        <v>0.9979108934633255</v>
       </c>
       <c r="E10">
-        <v>1.013873192135316</v>
+        <v>0.9845201081687338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02578129980991</v>
+        <v>1.035429223842253</v>
       </c>
       <c r="J10">
-        <v>1.01813748913099</v>
+        <v>1.002377928948451</v>
       </c>
       <c r="K10">
-        <v>1.022543000637225</v>
+        <v>1.012317970098572</v>
       </c>
       <c r="L10">
-        <v>1.017399755815962</v>
+        <v>0.9991745970984376</v>
       </c>
       <c r="N10">
-        <v>1.010180215573127</v>
+        <v>1.004875013088818</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011108812709223</v>
+        <v>0.9703259673697325</v>
       </c>
       <c r="D11">
-        <v>1.018662878829981</v>
+        <v>0.9960383397785585</v>
       </c>
       <c r="E11">
-        <v>1.013434111981779</v>
+        <v>0.9824354861324963</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025728867975672</v>
+        <v>1.034924346249892</v>
       </c>
       <c r="J11">
-        <v>1.017853650566721</v>
+        <v>1.000987533943029</v>
       </c>
       <c r="K11">
-        <v>1.022295466792827</v>
+        <v>1.011035355935672</v>
       </c>
       <c r="L11">
-        <v>1.017086937715159</v>
+        <v>0.9976964233396944</v>
       </c>
       <c r="N11">
-        <v>1.010085853238142</v>
+        <v>1.004410482875874</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01091429585641</v>
+        <v>0.9693028363481646</v>
       </c>
       <c r="D12">
-        <v>1.018524458081827</v>
+        <v>0.9953363892215089</v>
       </c>
       <c r="E12">
-        <v>1.013271200887046</v>
+        <v>0.9816547723674517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025709155501414</v>
+        <v>1.034733110030307</v>
       </c>
       <c r="J12">
-        <v>1.01774822120502</v>
+        <v>1.000465670874574</v>
       </c>
       <c r="K12">
-        <v>1.022203441855488</v>
+        <v>1.010553485402005</v>
       </c>
       <c r="L12">
-        <v>1.016970798273665</v>
+        <v>0.9971420846386215</v>
       </c>
       <c r="N12">
-        <v>1.010050798492327</v>
+        <v>1.004236119454206</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010956014834051</v>
+        <v>0.9695227732247892</v>
       </c>
       <c r="D13">
-        <v>1.018554147399618</v>
+        <v>0.9954872534059065</v>
       </c>
       <c r="E13">
-        <v>1.013306137563762</v>
+        <v>0.9818225317257113</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025713394605244</v>
+        <v>1.034774299661509</v>
       </c>
       <c r="J13">
-        <v>1.017770836096673</v>
+        <v>1.000577860315872</v>
       </c>
       <c r="K13">
-        <v>1.022223185106024</v>
+        <v>1.010657097798886</v>
       </c>
       <c r="L13">
-        <v>1.016995708058732</v>
+        <v>0.9972612343745682</v>
       </c>
       <c r="N13">
-        <v>1.010058318044192</v>
+        <v>1.004273604264969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011092731387381</v>
+        <v>0.9702416070283298</v>
       </c>
       <c r="D14">
-        <v>1.018651435847692</v>
+        <v>0.9959804482479462</v>
       </c>
       <c r="E14">
-        <v>1.013420641958445</v>
+        <v>0.9823710840465845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025727243366065</v>
+        <v>1.034908614587111</v>
       </c>
       <c r="J14">
-        <v>1.017844935715858</v>
+        <v>1.000944508092128</v>
       </c>
       <c r="K14">
-        <v>1.02228786160295</v>
+        <v>1.010995636590041</v>
       </c>
       <c r="L14">
-        <v>1.017077336459192</v>
+        <v>0.9976507104096419</v>
       </c>
       <c r="N14">
-        <v>1.010082955688246</v>
+        <v>1.00439610737755</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011176983180523</v>
+        <v>0.9706831308866726</v>
       </c>
       <c r="D15">
-        <v>1.018711385471383</v>
+        <v>0.9962834667495174</v>
       </c>
       <c r="E15">
-        <v>1.013491216182491</v>
+        <v>0.9827082101611695</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025735744667241</v>
+        <v>1.034990877499864</v>
       </c>
       <c r="J15">
-        <v>1.017890591100967</v>
+        <v>1.001169689114612</v>
       </c>
       <c r="K15">
-        <v>1.022327700391846</v>
+        <v>1.011203493929782</v>
       </c>
       <c r="L15">
-        <v>1.017127637761912</v>
+        <v>0.9978899737861524</v>
       </c>
       <c r="N15">
-        <v>1.010098135189321</v>
+        <v>1.004471342929038</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011667611150914</v>
+        <v>0.9732323735470532</v>
       </c>
       <c r="D16">
-        <v>1.019060423510655</v>
+        <v>0.9980342837357256</v>
       </c>
       <c r="E16">
-        <v>1.013902357964936</v>
+        <v>0.9846575758525897</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025784746268637</v>
+        <v>1.035462216031509</v>
       </c>
       <c r="J16">
-        <v>1.01815632661284</v>
+        <v>1.002469457526655</v>
       </c>
       <c r="K16">
-        <v>1.022559417363504</v>
+        <v>1.012402338325698</v>
       </c>
       <c r="L16">
-        <v>1.017420524169866</v>
+        <v>0.9992719694417028</v>
       </c>
       <c r="N16">
-        <v>1.010186477449894</v>
+        <v>1.004905591356422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011975584347763</v>
+        <v>0.9748136619848808</v>
       </c>
       <c r="D17">
-        <v>1.019279456922195</v>
+        <v>0.9991213654423424</v>
       </c>
       <c r="E17">
-        <v>1.014160579930456</v>
+        <v>0.9858692549671658</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025815060640002</v>
+        <v>1.035751360704289</v>
       </c>
       <c r="J17">
-        <v>1.018323015591788</v>
+        <v>1.003275346102946</v>
       </c>
       <c r="K17">
-        <v>1.022704623393248</v>
+        <v>1.013144817863559</v>
       </c>
       <c r="L17">
-        <v>1.017604340663426</v>
+        <v>1.000129668326363</v>
       </c>
       <c r="N17">
-        <v>1.010241883886288</v>
+        <v>1.005174817998384</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012155296862359</v>
+        <v>0.9757297362341817</v>
       </c>
       <c r="D18">
-        <v>1.019407247558401</v>
+        <v>0.9997514920424242</v>
       </c>
       <c r="E18">
-        <v>1.014311312389896</v>
+        <v>0.9865720873529983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025832589810573</v>
+        <v>1.035917690920848</v>
       </c>
       <c r="J18">
-        <v>1.018420242037937</v>
+        <v>1.003742074769115</v>
       </c>
       <c r="K18">
-        <v>1.022789267268815</v>
+        <v>1.013574516436537</v>
       </c>
       <c r="L18">
-        <v>1.017711592028518</v>
+        <v>1.000626700733133</v>
       </c>
       <c r="N18">
-        <v>1.01027419836083</v>
+        <v>1.005330732960129</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012216587181795</v>
+        <v>0.9760410446659484</v>
       </c>
       <c r="D19">
-        <v>1.019450826253408</v>
+        <v>0.9999656856391199</v>
       </c>
       <c r="E19">
-        <v>1.014362727868828</v>
+        <v>0.9868110778995033</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025838540883989</v>
+        <v>1.035974013462189</v>
       </c>
       <c r="J19">
-        <v>1.018453393629946</v>
+        <v>1.00390065775414</v>
       </c>
       <c r="K19">
-        <v>1.022818119718585</v>
+        <v>1.013720464809981</v>
       </c>
       <c r="L19">
-        <v>1.017748167745866</v>
+        <v>1.000795630731173</v>
       </c>
       <c r="N19">
-        <v>1.01028521620997</v>
+        <v>1.005383707797748</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011942533764466</v>
+        <v>0.9746446558703548</v>
       </c>
       <c r="D20">
-        <v>1.019255953369334</v>
+        <v>0.9990051420002269</v>
       </c>
       <c r="E20">
-        <v>1.014132863148683</v>
+        <v>0.9857396605219961</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025811823983013</v>
+        <v>1.035720579033852</v>
       </c>
       <c r="J20">
-        <v>1.018305131474586</v>
+        <v>1.003189227976083</v>
       </c>
       <c r="K20">
-        <v>1.022689049563897</v>
+        <v>1.0130655073728</v>
       </c>
       <c r="L20">
-        <v>1.017584615332903</v>
+        <v>1.000037982796923</v>
       </c>
       <c r="N20">
-        <v>1.010235939623525</v>
+        <v>1.005146048869381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011052468389165</v>
+        <v>0.9700302153530326</v>
       </c>
       <c r="D21">
-        <v>1.018622785362611</v>
+        <v>0.9958353932258877</v>
       </c>
       <c r="E21">
-        <v>1.013386918204838</v>
+        <v>0.9822097276832233</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025723171786534</v>
+        <v>1.034869165026351</v>
       </c>
       <c r="J21">
-        <v>1.017823115188152</v>
+        <v>1.000836690404141</v>
       </c>
       <c r="K21">
-        <v>1.022268818178707</v>
+        <v>1.010896097252681</v>
       </c>
       <c r="L21">
-        <v>1.017053297395616</v>
+        <v>0.9975361668052952</v>
       </c>
       <c r="N21">
-        <v>1.010075700632866</v>
+        <v>1.00436008393769</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010493555301183</v>
+        <v>0.9670693367040275</v>
       </c>
       <c r="D22">
-        <v>1.018224991455997</v>
+        <v>0.9938052928787758</v>
       </c>
       <c r="E22">
-        <v>1.012918971790797</v>
+        <v>0.9799531954422726</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025666062032074</v>
+        <v>1.034312386172202</v>
       </c>
       <c r="J22">
-        <v>1.017520058434592</v>
+        <v>0.999326158873577</v>
       </c>
       <c r="K22">
-        <v>1.022004140805096</v>
+        <v>1.009500475157366</v>
       </c>
       <c r="L22">
-        <v>1.016719556440984</v>
+        <v>0.9959325258089622</v>
       </c>
       <c r="N22">
-        <v>1.009974926964303</v>
+        <v>1.003855373840588</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010789778119791</v>
+        <v>0.9686447621552273</v>
       </c>
       <c r="D23">
-        <v>1.018435840029972</v>
+        <v>0.9948850878030134</v>
       </c>
       <c r="E23">
-        <v>1.013166937994047</v>
+        <v>0.9811530354549255</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025696466669385</v>
+        <v>1.034609606219912</v>
       </c>
       <c r="J23">
-        <v>1.017680713510636</v>
+        <v>1.000129965322399</v>
       </c>
       <c r="K23">
-        <v>1.022144494505991</v>
+        <v>1.010243379093212</v>
       </c>
       <c r="L23">
-        <v>1.016896448017135</v>
+        <v>0.9967856207169774</v>
       </c>
       <c r="N23">
-        <v>1.010028351201298</v>
+        <v>1.004123952070831</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011957467662858</v>
+        <v>0.9747210417854558</v>
       </c>
       <c r="D24">
-        <v>1.019266573514098</v>
+        <v>0.9990576705611059</v>
       </c>
       <c r="E24">
-        <v>1.014145386811302</v>
+        <v>0.9857982307677133</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025813286960862</v>
+        <v>1.035734495118947</v>
       </c>
       <c r="J24">
-        <v>1.018313212538801</v>
+        <v>1.003228151335107</v>
       </c>
       <c r="K24">
-        <v>1.022696086868942</v>
+        <v>1.013101354793959</v>
       </c>
       <c r="L24">
-        <v>1.017593528254874</v>
+        <v>1.000079421566985</v>
       </c>
       <c r="N24">
-        <v>1.010238625589835</v>
+        <v>1.005159051858169</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013315518509072</v>
+        <v>0.9815278805916399</v>
       </c>
       <c r="D25">
-        <v>1.020231847239014</v>
+        <v>1.003745482523114</v>
       </c>
       <c r="E25">
-        <v>1.015285363463984</v>
+        <v>0.9910357784340578</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025942858082052</v>
+        <v>1.036948975322075</v>
       </c>
       <c r="J25">
-        <v>1.019047171027472</v>
+        <v>1.006693307913317</v>
       </c>
       <c r="K25">
-        <v>1.023334120254233</v>
+        <v>1.01628593162395</v>
       </c>
       <c r="L25">
-        <v>1.018403791573574</v>
+        <v>1.003774864807357</v>
       </c>
       <c r="N25">
-        <v>1.010482511446143</v>
+        <v>1.006316476782663</v>
       </c>
     </row>
   </sheetData>
